--- a/Calculo.xlsx
+++ b/Calculo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isecpt-my.sharepoint.com/personal/a2019137625_isec_pt/Documents/ISEC_PORTATIL/2ºAno/IIA/TP2/Codigo_TP/IIA_TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="11_AD4DF034E34935FBC521DCEF571B463E5BDEDD83" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7075E92B-C4F1-45CD-872D-8C1281C729FC}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="11_AD4DF034E34935FBC521DCEF571B463E5BDEDD83" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{261DF436-AB45-4763-8E28-E5BA9F1FBAE2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="15780" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20550" yWindow="1695" windowWidth="15780" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t>5000 iterações Prob = 0.001</t>
+  </si>
+  <si>
+    <t>prob:</t>
+  </si>
+  <si>
+    <t>2viz</t>
+  </si>
+  <si>
+    <t>evol</t>
+  </si>
+  <si>
+    <t>simples</t>
+  </si>
+  <si>
+    <t>mbf</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>44234-44516</t>
+  </si>
+  <si>
+    <t>43628-43781</t>
   </si>
 </sst>
 </file>
@@ -580,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +616,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" x14ac:dyDescent="0.35">
@@ -1418,7 +1443,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
         <v>6</v>
@@ -1436,7 +1461,7 @@
         <v>1218.22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1481,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>6</v>
@@ -1474,7 +1499,7 @@
         <v>969.27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1519,7 @@
         <v>5153</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
@@ -1512,7 +1537,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +1556,14 @@
       <c r="F54" s="5">
         <v>18018</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
         <v>6</v>
@@ -1549,8 +1580,23 @@
       <c r="F55" s="8">
         <v>17428.86</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55">
+        <v>43528</v>
+      </c>
+      <c r="O55">
+        <v>44151</v>
+      </c>
+      <c r="Q55">
+        <v>43579</v>
+      </c>
+      <c r="R55">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1569,8 +1615,17 @@
       <c r="F56" s="5">
         <v>43085</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
         <v>6</v>
@@ -1587,8 +1642,17 @@
       <c r="F57" s="8">
         <v>41889.980000000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57">
+        <v>43791</v>
+      </c>
+      <c r="O57">
+        <v>44480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>15</v>
       </c>
@@ -1607,8 +1671,17 @@
       <c r="F58" s="5">
         <v>142178</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58">
+        <v>43599</v>
+      </c>
+      <c r="O58">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
         <v>6</v>
@@ -1626,14 +1699,9 @@
         <v>139298.16</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A43:A44"/>
@@ -1647,6 +1715,11 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Calculo.xlsx
+++ b/Calculo.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isecpt-my.sharepoint.com/personal/a2019137625_isec_pt/Documents/ISEC_PORTATIL/2ºAno/IIA/TP2/Codigo_TP/IIA_TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="11_AD4DF034E34935FBC521DCEF571B463E5BDEDD83" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{261DF436-AB45-4763-8E28-E5BA9F1FBAE2}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="11_AD4DF034E34935FBC521DCEF571B463E5BDEDD83" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{237A1C2C-1522-4C9A-8AAF-5EB57C9CECE5}"/>
   <bookViews>
-    <workbookView xWindow="20550" yWindow="1695" windowWidth="15780" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8640" yWindow="2190" windowWidth="17550" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pesquisa Local" sheetId="1" r:id="rId1"/>
+    <sheet name="Evolutivo" sheetId="2" r:id="rId2"/>
+    <sheet name="Hibrido" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="250">
   <si>
     <t>Trepa-Colinas com Vizinhança 1</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -91,35 +102,723 @@
     <t>5000 iterações Prob = 0.001</t>
   </si>
   <si>
-    <t>prob:</t>
-  </si>
-  <si>
-    <t>2viz</t>
-  </si>
-  <si>
-    <t>evol</t>
-  </si>
-  <si>
-    <t>simples</t>
-  </si>
-  <si>
-    <t>mbf</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>44234-44516</t>
-  </si>
-  <si>
-    <t>43628-43781</t>
+    <t>n010.txt</t>
+  </si>
+  <si>
+    <t>n012.txt</t>
+  </si>
+  <si>
+    <t>n030.txt</t>
+  </si>
+  <si>
+    <t>n060.txt</t>
+  </si>
+  <si>
+    <t>n120.txt</t>
+  </si>
+  <si>
+    <t>n240.txt</t>
+  </si>
+  <si>
+    <t>Parâmetros Fixos</t>
+  </si>
+  <si>
+    <r>
+      <t>Parâmetros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a variar</t>
+    </r>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>ger = 2500</t>
+  </si>
+  <si>
+    <t>pr = 0.3</t>
+  </si>
+  <si>
+    <t>890.79</t>
+  </si>
+  <si>
+    <t>4202.1</t>
+  </si>
+  <si>
+    <t>149918.9</t>
+  </si>
+  <si>
+    <t>34473.5</t>
+  </si>
+  <si>
+    <t>117360.79</t>
+  </si>
+  <si>
+    <t>pop = 100</t>
+  </si>
+  <si>
+    <t>pr = 0.5</t>
+  </si>
+  <si>
+    <t>872.7</t>
+  </si>
+  <si>
+    <t>4221.89</t>
+  </si>
+  <si>
+    <t>1459.50</t>
+  </si>
+  <si>
+    <t>34251.5</t>
+  </si>
+  <si>
+    <t>117254.20</t>
+  </si>
+  <si>
+    <t>pm = 0.01</t>
+  </si>
+  <si>
+    <t>pr = 0.7</t>
+  </si>
+  <si>
+    <t>886.79</t>
+  </si>
+  <si>
+    <t>4161.7</t>
+  </si>
+  <si>
+    <t>14792.5</t>
+  </si>
+  <si>
+    <t>34302.39</t>
+  </si>
+  <si>
+    <t>117291.60</t>
+  </si>
+  <si>
+    <t>pm = 0.0</t>
+  </si>
+  <si>
+    <t>1226.59</t>
+  </si>
+  <si>
+    <t>856.29</t>
+  </si>
+  <si>
+    <t>4047.80</t>
+  </si>
+  <si>
+    <t>34296.5</t>
+  </si>
+  <si>
+    <t>117151.898</t>
+  </si>
+  <si>
+    <t>pm = 0.001</t>
+  </si>
+  <si>
+    <t>1228.0</t>
+  </si>
+  <si>
+    <t>899.5</t>
+  </si>
+  <si>
+    <t>4166.20</t>
+  </si>
+  <si>
+    <t>14858.50</t>
+  </si>
+  <si>
+    <t>34850.3</t>
+  </si>
+  <si>
+    <t>t_size=5</t>
+  </si>
+  <si>
+    <t>pm=0.01</t>
+  </si>
+  <si>
+    <t>904.40</t>
+  </si>
+  <si>
+    <t>4150.6</t>
+  </si>
+  <si>
+    <t>14728.20</t>
+  </si>
+  <si>
+    <t>117233.5</t>
+  </si>
+  <si>
+    <t>pm = 0.05</t>
+  </si>
+  <si>
+    <t>903.9</t>
+  </si>
+  <si>
+    <t>14491.59</t>
+  </si>
+  <si>
+    <t>34235.39</t>
+  </si>
+  <si>
+    <t>117286.796</t>
+  </si>
+  <si>
+    <t>pop = 10 (ger = 25K)</t>
+  </si>
+  <si>
+    <t>807.5</t>
+  </si>
+  <si>
+    <t>4105.6</t>
+  </si>
+  <si>
+    <t>33896.0</t>
+  </si>
+  <si>
+    <t>115903.60</t>
+  </si>
+  <si>
+    <t>pm = melhor valor obtido=0.01</t>
+  </si>
+  <si>
+    <t>pop = 50 (ger = 5K)</t>
+  </si>
+  <si>
+    <t>866.90</t>
+  </si>
+  <si>
+    <t>4155.5</t>
+  </si>
+  <si>
+    <t>14884.5</t>
+  </si>
+  <si>
+    <t>34299.10</t>
+  </si>
+  <si>
+    <t>116978.20</t>
+  </si>
+  <si>
+    <t>pop = 100 (ger = 2.5K)</t>
+  </si>
+  <si>
+    <t>864.7</t>
+  </si>
+  <si>
+    <t>14639.40</t>
+  </si>
+  <si>
+    <t>117053.60</t>
+  </si>
+  <si>
+    <t>34351.1</t>
+  </si>
+  <si>
+    <t>34350.6</t>
+  </si>
+  <si>
+    <t>4076.1</t>
+  </si>
+  <si>
+    <t>14330.7</t>
+  </si>
+  <si>
+    <t>118292.8</t>
+  </si>
+  <si>
+    <t>4162.2</t>
+  </si>
+  <si>
+    <t>Algoritmo Base mutacao por troca + recombinacao com 2 pontos de corte</t>
+  </si>
+  <si>
+    <t>138487.29</t>
+  </si>
+  <si>
+    <t>17956.9</t>
+  </si>
+  <si>
+    <t>42673.10</t>
+  </si>
+  <si>
+    <t>pm = 0.01 t_size=5</t>
+  </si>
+  <si>
+    <t>5079.70</t>
+  </si>
+  <si>
+    <t>17921.93</t>
+  </si>
+  <si>
+    <t>42542.96</t>
+  </si>
+  <si>
+    <t>138145.15</t>
+  </si>
+  <si>
+    <t>4079.93</t>
+  </si>
+  <si>
+    <t>14435.96</t>
+  </si>
+  <si>
+    <t>117335.79</t>
+  </si>
+  <si>
+    <t>16696.46</t>
+  </si>
+  <si>
+    <t>126738.45</t>
+  </si>
+  <si>
+    <t>17921.30</t>
+  </si>
+  <si>
+    <t>42626.19</t>
+  </si>
+  <si>
+    <t>138189.90</t>
+  </si>
+  <si>
+    <t>996.79</t>
+  </si>
+  <si>
+    <t>5091.33</t>
+  </si>
+  <si>
+    <t>18183.66</t>
+  </si>
+  <si>
+    <t>44239.89</t>
+  </si>
+  <si>
+    <t>144117.84</t>
+  </si>
+  <si>
+    <t>993.76</t>
+  </si>
+  <si>
+    <t>42779.3</t>
+  </si>
+  <si>
+    <t>138866.15</t>
+  </si>
+  <si>
+    <t>pm = melhor valor obtido = 0.01</t>
+  </si>
+  <si>
+    <t>998.93</t>
+  </si>
+  <si>
+    <t>17895.76</t>
+  </si>
+  <si>
+    <t>42715.43</t>
+  </si>
+  <si>
+    <t>128644.46</t>
+  </si>
+  <si>
+    <t>995.2</t>
+  </si>
+  <si>
+    <t>5060.16</t>
+  </si>
+  <si>
+    <t>17849.59</t>
+  </si>
+  <si>
+    <t>42580.89</t>
+  </si>
+  <si>
+    <t>138344.64</t>
+  </si>
+  <si>
+    <t>992.7</t>
+  </si>
+  <si>
+    <t>991.1</t>
+  </si>
+  <si>
+    <t>869.5</t>
+  </si>
+  <si>
+    <t>997.8</t>
+  </si>
+  <si>
+    <t>988.23</t>
+  </si>
+  <si>
+    <t>5043.46</t>
+  </si>
+  <si>
+    <t>34381.16</t>
+  </si>
+  <si>
+    <t>4803.26</t>
+  </si>
+  <si>
+    <t>885.20</t>
+  </si>
+  <si>
+    <t>4229.0</t>
+  </si>
+  <si>
+    <t>14930.90</t>
+  </si>
+  <si>
+    <t>34358.39</t>
+  </si>
+  <si>
+    <t>117508.5</t>
+  </si>
+  <si>
+    <t>893.5</t>
+  </si>
+  <si>
+    <t>4191.79</t>
+  </si>
+  <si>
+    <t>14747.29</t>
+  </si>
+  <si>
+    <t>119168.10</t>
+  </si>
+  <si>
+    <t>915.4</t>
+  </si>
+  <si>
+    <t>14780.79</t>
+  </si>
+  <si>
+    <t>34250.69</t>
+  </si>
+  <si>
+    <t>117180.29</t>
+  </si>
+  <si>
+    <t>4035.69</t>
+  </si>
+  <si>
+    <t>117428.29</t>
+  </si>
+  <si>
+    <t>819.0</t>
+  </si>
+  <si>
+    <t>14060.59</t>
+  </si>
+  <si>
+    <t>33490.89</t>
+  </si>
+  <si>
+    <t>116072.296</t>
+  </si>
+  <si>
+    <t>882.29</t>
+  </si>
+  <si>
+    <t>4113.79</t>
+  </si>
+  <si>
+    <t>14508.5</t>
+  </si>
+  <si>
+    <t>34085.5</t>
+  </si>
+  <si>
+    <t>116846.70</t>
+  </si>
+  <si>
+    <t>892.09</t>
+  </si>
+  <si>
+    <t>4262.20</t>
+  </si>
+  <si>
+    <t>14956.5</t>
+  </si>
+  <si>
+    <t>34473.80</t>
+  </si>
+  <si>
+    <t>11703.39</t>
+  </si>
+  <si>
+    <t>Algoritmo: Mutação binária + Recombinação de 1 ponto de corte</t>
+  </si>
+  <si>
+    <t>Algoritmo: mutacao binaria + recombinacao com 2 pontos de corte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritmo mutacao binaria +recombinacao uniforme </t>
+  </si>
+  <si>
+    <t>34130.2</t>
+  </si>
+  <si>
+    <t>Algoritmo Hibrido + Trepa Colinas</t>
+  </si>
+  <si>
+    <t>43036.9</t>
+  </si>
+  <si>
+    <t>Algoritmo Hibrido + Trepa Colinas 2 viz</t>
+  </si>
+  <si>
+    <t>986.09</t>
+  </si>
+  <si>
+    <t>5015.10</t>
+  </si>
+  <si>
+    <t>17524.69</t>
+  </si>
+  <si>
+    <t>41449.39</t>
+  </si>
+  <si>
+    <t>134670.90</t>
+  </si>
+  <si>
+    <t>998.4</t>
+  </si>
+  <si>
+    <t>17595.90</t>
+  </si>
+  <si>
+    <t>41520.10</t>
+  </si>
+  <si>
+    <t>4996.3</t>
+  </si>
+  <si>
+    <t>17507.19</t>
+  </si>
+  <si>
+    <t>41421.69</t>
+  </si>
+  <si>
+    <t>134363.20</t>
+  </si>
+  <si>
+    <t>5003.5</t>
+  </si>
+  <si>
+    <t>17568.5</t>
+  </si>
+  <si>
+    <t>41584.10</t>
+  </si>
+  <si>
+    <t>134806.40</t>
+  </si>
+  <si>
+    <t>995.20</t>
+  </si>
+  <si>
+    <t>4984.70</t>
+  </si>
+  <si>
+    <t>17534.80</t>
+  </si>
+  <si>
+    <t>41494.69</t>
+  </si>
+  <si>
+    <t>134810.40</t>
+  </si>
+  <si>
+    <t>5055.29</t>
+  </si>
+  <si>
+    <t>17390.69</t>
+  </si>
+  <si>
+    <t>41501.80</t>
+  </si>
+  <si>
+    <t>134765.79</t>
+  </si>
+  <si>
+    <t>5040.39</t>
+  </si>
+  <si>
+    <t>17569.80</t>
+  </si>
+  <si>
+    <t>41288.10</t>
+  </si>
+  <si>
+    <t>134425.29</t>
+  </si>
+  <si>
+    <t>5024.70</t>
+  </si>
+  <si>
+    <t>17478.0</t>
+  </si>
+  <si>
+    <t>41523.60</t>
+  </si>
+  <si>
+    <t>134686.59</t>
+  </si>
+  <si>
+    <t>987.70</t>
+  </si>
+  <si>
+    <t>5047.79</t>
+  </si>
+  <si>
+    <t>17504.5</t>
+  </si>
+  <si>
+    <t>41441.69</t>
+  </si>
+  <si>
+    <t>134399.70</t>
+  </si>
+  <si>
+    <t>5003.7</t>
+  </si>
+  <si>
+    <t>17583.30</t>
+  </si>
+  <si>
+    <t>41464.0</t>
+  </si>
+  <si>
+    <t>134243.79</t>
+  </si>
+  <si>
+    <t>Algoritmo Hibrido + Tabu</t>
+  </si>
+  <si>
+    <t>1000 iterações Tabu Descidas=5</t>
+  </si>
+  <si>
+    <t>5000 iterações Tabu Descidas = 5</t>
+  </si>
+  <si>
+    <t>1000 iterações Tabu Descidas=10</t>
+  </si>
+  <si>
+    <t>5000 iterações Tabu Descidas=10</t>
+  </si>
+  <si>
+    <t>1000 iterações Tabu Descidas=1</t>
+  </si>
+  <si>
+    <t>5000 iterações Tabu Descidas=1</t>
+  </si>
+  <si>
+    <t>993.23</t>
+  </si>
+  <si>
+    <t>985.2</t>
+  </si>
+  <si>
+    <t>987.7</t>
+  </si>
+  <si>
+    <t>30,5: n030.txt</t>
+  </si>
+  <si>
+    <t>5013.46</t>
+  </si>
+  <si>
+    <t>5080.63</t>
+  </si>
+  <si>
+    <t>4998.66</t>
+  </si>
+  <si>
+    <t>4998.60</t>
+  </si>
+  <si>
+    <t>60,6: n060.txt</t>
+  </si>
+  <si>
+    <t>17679.03</t>
+  </si>
+  <si>
+    <t>120,10: n120.txt</t>
+  </si>
+  <si>
+    <t>42173.73</t>
+  </si>
+  <si>
+    <t>43758.5</t>
+  </si>
+  <si>
+    <t>433680.80</t>
+  </si>
+  <si>
+    <t>240,12: n240.txt</t>
+  </si>
+  <si>
+    <t>143403.3</t>
+  </si>
+  <si>
+    <t>135128.5</t>
+  </si>
+  <si>
+    <t>17565.0</t>
+  </si>
+  <si>
+    <t>5077.6</t>
+  </si>
+  <si>
+    <t>990.7</t>
+  </si>
+  <si>
+    <t>142143.7</t>
+  </si>
+  <si>
+    <t>41612.8</t>
+  </si>
+  <si>
+    <t>19128.16</t>
+  </si>
+  <si>
+    <t>137986.4</t>
+  </si>
+  <si>
+    <t>41886.9</t>
+  </si>
+  <si>
+    <r>
+      <t>Parâmetros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a variar</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +845,92 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +955,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -280,11 +1123,823 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9CC2E5"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9CC2E5"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,11 +1973,895 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +3154,10 @@
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -644,7 +3186,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="257" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -664,7 +3206,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="258"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -682,7 +3224,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="257" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -702,7 +3244,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="258"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -720,7 +3262,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="257" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -740,7 +3282,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="258"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -758,7 +3300,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="257" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -778,7 +3320,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="258"/>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
@@ -796,7 +3338,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="257" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -816,7 +3358,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="258"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
@@ -834,7 +3376,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="257" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -854,7 +3396,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="258"/>
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
@@ -904,7 +3446,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="257" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -924,7 +3466,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="258"/>
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -942,7 +3484,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="257" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -962,7 +3504,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="258"/>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
@@ -980,7 +3522,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="257" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1000,7 +3542,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="258"/>
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +3560,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="257" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1038,7 +3580,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="258"/>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +3598,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="257" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1076,7 +3618,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="258"/>
       <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +3636,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="257" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1114,7 +3656,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="258"/>
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +3710,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="257" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1188,7 +3730,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="258"/>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +3748,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="257" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1226,7 +3768,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="258"/>
       <c r="B36" s="6" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +3786,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="257" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1264,7 +3806,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="258"/>
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +3824,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="257" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1302,7 +3844,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="258"/>
       <c r="B40" s="6" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +3862,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="257" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1340,7 +3882,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="258"/>
       <c r="B42" s="6" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +3900,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="257" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1378,7 +3920,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="258"/>
       <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
@@ -1443,7 +3985,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
         <v>6</v>
@@ -1461,7 +4003,7 @@
         <v>1218.22</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -1481,7 +4023,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
         <v>6</v>
@@ -1499,7 +4041,7 @@
         <v>969.27</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +4061,7 @@
         <v>5153</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
         <v>6</v>
@@ -1537,7 +4079,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>13</v>
       </c>
@@ -1556,14 +4098,8 @@
       <c r="F54" s="5">
         <v>18018</v>
       </c>
-      <c r="N54" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
         <v>6</v>
@@ -1580,23 +4116,8 @@
       <c r="F55" s="8">
         <v>17428.86</v>
       </c>
-      <c r="M55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55">
-        <v>43528</v>
-      </c>
-      <c r="O55">
-        <v>44151</v>
-      </c>
-      <c r="Q55">
-        <v>43579</v>
-      </c>
-      <c r="R55">
-        <v>44391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>14</v>
       </c>
@@ -1615,17 +4136,8 @@
       <c r="F56" s="5">
         <v>43085</v>
       </c>
-      <c r="M56" t="s">
-        <v>24</v>
-      </c>
-      <c r="N56" t="s">
-        <v>28</v>
-      </c>
-      <c r="O56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
         <v>6</v>
@@ -1642,17 +4154,8 @@
       <c r="F57" s="8">
         <v>41889.980000000003</v>
       </c>
-      <c r="M57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57">
-        <v>43791</v>
-      </c>
-      <c r="O57">
-        <v>44480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>15</v>
       </c>
@@ -1671,17 +4174,8 @@
       <c r="F58" s="5">
         <v>142178</v>
       </c>
-      <c r="M58" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58">
-        <v>43599</v>
-      </c>
-      <c r="O58">
-        <v>44255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
         <v>6</v>
@@ -1699,7 +4193,332 @@
         <v>139298.16</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="91"/>
+      <c r="C63" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="H63" s="90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="88">
+        <v>1228</v>
+      </c>
+      <c r="D64" s="88">
+        <v>1228</v>
+      </c>
+      <c r="E64" s="88">
+        <v>1228</v>
+      </c>
+      <c r="F64" s="88">
+        <v>1228</v>
+      </c>
+      <c r="G64" s="88">
+        <v>1228</v>
+      </c>
+      <c r="H64" s="88">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="87"/>
+      <c r="B65" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="86">
+        <v>1228</v>
+      </c>
+      <c r="D65" s="86">
+        <v>1228</v>
+      </c>
+      <c r="E65" s="86">
+        <v>1228</v>
+      </c>
+      <c r="F65" s="86">
+        <v>1228</v>
+      </c>
+      <c r="G65" s="86">
+        <v>1228</v>
+      </c>
+      <c r="H65" s="86">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="88">
+        <v>1000</v>
+      </c>
+      <c r="D66" s="88">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="88">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="88">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="88">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="87"/>
+      <c r="B67" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="86">
+        <v>986.63</v>
+      </c>
+      <c r="F67" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="88">
+        <v>5194</v>
+      </c>
+      <c r="D68" s="88">
+        <v>5194</v>
+      </c>
+      <c r="E68" s="88">
+        <v>5143</v>
+      </c>
+      <c r="F68" s="88">
+        <v>5194</v>
+      </c>
+      <c r="G68" s="88">
+        <v>5122</v>
+      </c>
+      <c r="H68" s="88">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="87"/>
+      <c r="B69" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" s="86">
+        <v>5053.8599999999997</v>
+      </c>
+      <c r="G69" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="H69" s="86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="88">
+        <v>17938</v>
+      </c>
+      <c r="D70" s="88">
+        <v>18451</v>
+      </c>
+      <c r="E70" s="88">
+        <v>18185</v>
+      </c>
+      <c r="F70" s="88">
+        <v>18407</v>
+      </c>
+      <c r="G70" s="88">
+        <v>18029</v>
+      </c>
+      <c r="H70" s="88">
+        <v>18447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="87"/>
+      <c r="B71" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="86">
+        <v>17587.22</v>
+      </c>
+      <c r="D71" s="86">
+        <v>18135.900389999999</v>
+      </c>
+      <c r="E71" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="G71" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="H71" s="86">
+        <v>18119.099999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="88">
+        <v>42631</v>
+      </c>
+      <c r="D72" s="88">
+        <v>44303</v>
+      </c>
+      <c r="E72" s="88">
+        <v>42917</v>
+      </c>
+      <c r="F72" s="88">
+        <v>44303</v>
+      </c>
+      <c r="G72" s="88">
+        <v>42466</v>
+      </c>
+      <c r="H72" s="88">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="87"/>
+      <c r="B73" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="86">
+        <v>43726.3</v>
+      </c>
+      <c r="E73" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="G73" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="88">
+        <v>138668</v>
+      </c>
+      <c r="D74" s="88">
+        <v>144503</v>
+      </c>
+      <c r="E74" s="88">
+        <v>139056</v>
+      </c>
+      <c r="F74" s="88">
+        <v>144676</v>
+      </c>
+      <c r="G74" s="88">
+        <v>136487</v>
+      </c>
+      <c r="H74" s="88">
+        <v>143349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="87"/>
+      <c r="B75" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="86">
+        <v>1368833.703</v>
+      </c>
+      <c r="D75" s="86">
+        <v>142780.06</v>
+      </c>
+      <c r="E75" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="G75" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="H75" s="86" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A13:A14"/>
@@ -1724,4 +4543,3820 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E01F09-7C0A-46BC-A1AC-92C6868E0BCA}">
+  <dimension ref="A4:N67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="284"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="300" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="285"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="302" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="303"/>
+      <c r="E5" s="304" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="304"/>
+      <c r="G5" s="305" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="306"/>
+      <c r="I5" s="307" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="308"/>
+      <c r="K5" s="309" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="310"/>
+      <c r="M5" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="312"/>
+    </row>
+    <row r="6" spans="1:14" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="286" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="287" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="289" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="289" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="289" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="289" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="288" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="50.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="290" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="291" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="163">
+        <v>1228</v>
+      </c>
+      <c r="D7" s="164">
+        <v>1228</v>
+      </c>
+      <c r="E7" s="165">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="166">
+        <v>4265</v>
+      </c>
+      <c r="H7" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="168">
+        <v>15198</v>
+      </c>
+      <c r="J7" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="169">
+        <v>35019</v>
+      </c>
+      <c r="L7" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="170">
+        <v>118659</v>
+      </c>
+      <c r="N7" s="171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="290" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="291" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="172">
+        <v>1228</v>
+      </c>
+      <c r="D8" s="173">
+        <v>1228</v>
+      </c>
+      <c r="E8" s="174">
+        <v>945</v>
+      </c>
+      <c r="F8" s="175" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="176">
+        <v>4466</v>
+      </c>
+      <c r="H8" s="177" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="178">
+        <v>15408</v>
+      </c>
+      <c r="J8" s="177" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="179">
+        <v>34598</v>
+      </c>
+      <c r="L8" s="177" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="168">
+        <v>117903</v>
+      </c>
+      <c r="N8" s="180" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="292" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="293" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="174">
+        <v>1228</v>
+      </c>
+      <c r="D9" s="175">
+        <v>1228</v>
+      </c>
+      <c r="E9" s="178">
+        <v>961</v>
+      </c>
+      <c r="F9" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="182">
+        <v>4280</v>
+      </c>
+      <c r="H9" s="177" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="176">
+        <v>15185</v>
+      </c>
+      <c r="J9" s="177" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="178">
+        <v>34682</v>
+      </c>
+      <c r="L9" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="178">
+        <v>118828</v>
+      </c>
+      <c r="N9" s="184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="50.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="294" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="295" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="185">
+        <v>1228</v>
+      </c>
+      <c r="D10" s="175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="178">
+        <v>887</v>
+      </c>
+      <c r="F10" s="181" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="178">
+        <v>4183</v>
+      </c>
+      <c r="H10" s="186" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="178">
+        <v>14575</v>
+      </c>
+      <c r="J10" s="181" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="178">
+        <v>34989</v>
+      </c>
+      <c r="L10" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="178">
+        <v>118145</v>
+      </c>
+      <c r="N10" s="181" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="290" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="291" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="174">
+        <v>1228</v>
+      </c>
+      <c r="D11" s="187" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="178">
+        <v>984</v>
+      </c>
+      <c r="F11" s="181" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="178">
+        <v>4275</v>
+      </c>
+      <c r="H11" s="181" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="178">
+        <v>15051</v>
+      </c>
+      <c r="J11" s="181" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="178">
+        <v>35139</v>
+      </c>
+      <c r="L11" s="181" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="178">
+        <v>119334</v>
+      </c>
+      <c r="N11" s="181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="290" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="291" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="188">
+        <v>1228</v>
+      </c>
+      <c r="D12" s="181">
+        <v>1228</v>
+      </c>
+      <c r="E12" s="178">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="181" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="178">
+        <v>4342</v>
+      </c>
+      <c r="H12" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="178">
+        <v>15569</v>
+      </c>
+      <c r="J12" s="181" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="178">
+        <v>35428</v>
+      </c>
+      <c r="L12" s="181" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="178">
+        <v>118137</v>
+      </c>
+      <c r="N12" s="181" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="285" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="189">
+        <v>1228</v>
+      </c>
+      <c r="D13" s="190">
+        <v>1228</v>
+      </c>
+      <c r="E13" s="178">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="178">
+        <v>4149</v>
+      </c>
+      <c r="H13" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="178">
+        <v>14766</v>
+      </c>
+      <c r="J13" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="191">
+        <v>344452</v>
+      </c>
+      <c r="L13" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="178">
+        <v>119069</v>
+      </c>
+      <c r="N13" s="181" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="297" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="189">
+        <v>1228</v>
+      </c>
+      <c r="D14" s="168">
+        <v>1228</v>
+      </c>
+      <c r="E14" s="178">
+        <v>945</v>
+      </c>
+      <c r="F14" s="181" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="178">
+        <v>4366</v>
+      </c>
+      <c r="H14" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="191">
+        <v>14525</v>
+      </c>
+      <c r="J14" s="177">
+        <v>13980</v>
+      </c>
+      <c r="K14" s="191">
+        <v>34703</v>
+      </c>
+      <c r="L14" s="181" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="178">
+        <v>116817</v>
+      </c>
+      <c r="N14" s="181" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="298" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="291" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="189">
+        <v>1228</v>
+      </c>
+      <c r="D15" s="192">
+        <v>1228</v>
+      </c>
+      <c r="E15" s="178">
+        <v>967</v>
+      </c>
+      <c r="F15" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="178">
+        <v>4397</v>
+      </c>
+      <c r="H15" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="178">
+        <v>15153</v>
+      </c>
+      <c r="J15" s="177" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="191">
+        <v>34971</v>
+      </c>
+      <c r="L15" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="178">
+        <v>117870</v>
+      </c>
+      <c r="N15" s="181" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="299" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="291" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="193">
+        <v>1228</v>
+      </c>
+      <c r="D16" s="194">
+        <v>1228</v>
+      </c>
+      <c r="E16" s="195">
+        <v>961</v>
+      </c>
+      <c r="F16" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="197">
+        <v>4324</v>
+      </c>
+      <c r="H16" s="198" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="197">
+        <v>15147</v>
+      </c>
+      <c r="J16" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="179">
+        <v>34761</v>
+      </c>
+      <c r="L16" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="179">
+        <v>117442</v>
+      </c>
+      <c r="N16" s="196" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="156"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="259" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="259"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="157"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="261"/>
+      <c r="E22" s="262" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="263"/>
+      <c r="G22" s="264" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="265"/>
+      <c r="I22" s="266" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="267"/>
+      <c r="K22" s="268" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="269"/>
+      <c r="M22" s="270" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="271"/>
+    </row>
+    <row r="23" spans="1:14" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="24.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="200" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D24" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E24" s="203">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="204">
+        <v>907.7</v>
+      </c>
+      <c r="G24" s="205">
+        <v>4378</v>
+      </c>
+      <c r="H24" s="206">
+        <v>4243.3</v>
+      </c>
+      <c r="I24" s="207">
+        <v>15634</v>
+      </c>
+      <c r="J24" s="206">
+        <v>15070.3</v>
+      </c>
+      <c r="K24" s="208">
+        <v>35305</v>
+      </c>
+      <c r="L24" s="207">
+        <v>34245.800000000003</v>
+      </c>
+      <c r="M24" s="209">
+        <v>118111</v>
+      </c>
+      <c r="N24" s="210">
+        <v>117017.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="213">
+        <v>1228</v>
+      </c>
+      <c r="D25" s="214">
+        <v>1228</v>
+      </c>
+      <c r="E25" s="215">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="216">
+        <v>897</v>
+      </c>
+      <c r="G25" s="217">
+        <v>4375</v>
+      </c>
+      <c r="H25" s="218">
+        <v>4199.2</v>
+      </c>
+      <c r="I25" s="219">
+        <v>15566</v>
+      </c>
+      <c r="J25" s="218">
+        <v>14966.1</v>
+      </c>
+      <c r="K25" s="220">
+        <v>34671</v>
+      </c>
+      <c r="L25" s="218">
+        <v>34281.5</v>
+      </c>
+      <c r="M25" s="207">
+        <v>117850</v>
+      </c>
+      <c r="N25" s="221">
+        <v>117028.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="222" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="223" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D26" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E26" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="224">
+        <v>901.5</v>
+      </c>
+      <c r="G26" s="225">
+        <v>4356</v>
+      </c>
+      <c r="H26" s="218">
+        <v>4218.8999999999996</v>
+      </c>
+      <c r="I26" s="217">
+        <v>15724</v>
+      </c>
+      <c r="J26" s="218">
+        <v>14871.8</v>
+      </c>
+      <c r="K26" s="219">
+        <v>34628</v>
+      </c>
+      <c r="L26" s="226">
+        <v>34365.800000000003</v>
+      </c>
+      <c r="M26" s="227">
+        <v>117355</v>
+      </c>
+      <c r="N26" s="228">
+        <v>117420.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D27" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E27" s="219">
+        <v>967</v>
+      </c>
+      <c r="F27" s="224">
+        <v>852.29</v>
+      </c>
+      <c r="G27" s="219">
+        <v>4111</v>
+      </c>
+      <c r="H27" s="230">
+        <v>4057.73</v>
+      </c>
+      <c r="I27" s="219">
+        <v>14725</v>
+      </c>
+      <c r="J27" s="224">
+        <v>14480.8</v>
+      </c>
+      <c r="K27" s="219">
+        <v>35028</v>
+      </c>
+      <c r="L27" s="224">
+        <v>34324.699999999997</v>
+      </c>
+      <c r="M27" s="219">
+        <v>117924</v>
+      </c>
+      <c r="N27" s="224">
+        <v>117294.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="231" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="213">
+        <v>1228</v>
+      </c>
+      <c r="D28" s="214">
+        <v>1228</v>
+      </c>
+      <c r="E28" s="219">
+        <v>956</v>
+      </c>
+      <c r="F28" s="224">
+        <v>869.8</v>
+      </c>
+      <c r="G28" s="219">
+        <v>4286</v>
+      </c>
+      <c r="H28" s="224">
+        <v>4152</v>
+      </c>
+      <c r="I28" s="219">
+        <v>15248</v>
+      </c>
+      <c r="J28" s="224">
+        <v>14801.2</v>
+      </c>
+      <c r="K28" s="219">
+        <v>35197</v>
+      </c>
+      <c r="L28" s="224">
+        <v>34906.6</v>
+      </c>
+      <c r="M28" s="219">
+        <v>120772</v>
+      </c>
+      <c r="N28" s="224">
+        <v>118791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="232" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D29" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E29" s="219">
+        <v>984</v>
+      </c>
+      <c r="F29" s="224">
+        <v>904.2</v>
+      </c>
+      <c r="G29" s="219">
+        <v>4453</v>
+      </c>
+      <c r="H29" s="224">
+        <v>4221.1000000000004</v>
+      </c>
+      <c r="I29" s="219">
+        <v>15386</v>
+      </c>
+      <c r="J29" s="224">
+        <v>14967.2</v>
+      </c>
+      <c r="K29" s="219">
+        <v>34888</v>
+      </c>
+      <c r="L29" s="224">
+        <v>34383.1</v>
+      </c>
+      <c r="M29" s="219">
+        <v>117792</v>
+      </c>
+      <c r="N29" s="224">
+        <v>117059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D30" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E30" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="224">
+        <v>915.2</v>
+      </c>
+      <c r="G30" s="219">
+        <v>4119</v>
+      </c>
+      <c r="H30" s="224">
+        <v>4040.2</v>
+      </c>
+      <c r="I30" s="219">
+        <v>14522.29</v>
+      </c>
+      <c r="J30" s="218">
+        <v>14522.29</v>
+      </c>
+      <c r="K30" s="235">
+        <v>35221</v>
+      </c>
+      <c r="L30" s="224">
+        <v>34370</v>
+      </c>
+      <c r="M30" s="219">
+        <v>118959</v>
+      </c>
+      <c r="N30" s="224">
+        <v>117399.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="213">
+        <v>1228</v>
+      </c>
+      <c r="D31" s="214">
+        <v>1228</v>
+      </c>
+      <c r="E31" s="219">
+        <v>918</v>
+      </c>
+      <c r="F31" s="224">
+        <v>776.4</v>
+      </c>
+      <c r="G31" s="219">
+        <v>4215</v>
+      </c>
+      <c r="H31" s="218">
+        <v>4069.89</v>
+      </c>
+      <c r="I31" s="235">
+        <v>14341</v>
+      </c>
+      <c r="J31" s="218">
+        <v>14019.79</v>
+      </c>
+      <c r="K31" s="235">
+        <v>34109</v>
+      </c>
+      <c r="L31" s="224">
+        <v>33558.39</v>
+      </c>
+      <c r="M31" s="219">
+        <v>116732</v>
+      </c>
+      <c r="N31" s="224">
+        <v>115935.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="238" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="233" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D32" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E32" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="219">
+        <v>870</v>
+      </c>
+      <c r="G32" s="219">
+        <v>4247</v>
+      </c>
+      <c r="H32" s="224">
+        <v>4093.5</v>
+      </c>
+      <c r="I32" s="219">
+        <v>15043</v>
+      </c>
+      <c r="J32" s="219">
+        <v>14811.7</v>
+      </c>
+      <c r="K32" s="235">
+        <v>34660</v>
+      </c>
+      <c r="L32" s="224" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" s="219">
+        <v>117102</v>
+      </c>
+      <c r="N32" s="224">
+        <v>116874.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="239" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="201">
+        <v>1228</v>
+      </c>
+      <c r="D33" s="202">
+        <v>1228</v>
+      </c>
+      <c r="E33" s="241">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="241">
+        <v>891</v>
+      </c>
+      <c r="G33" s="242">
+        <v>4367</v>
+      </c>
+      <c r="H33" s="243">
+        <v>4235.1000000000004</v>
+      </c>
+      <c r="I33" s="220">
+        <v>15258</v>
+      </c>
+      <c r="J33" s="243">
+        <v>15019</v>
+      </c>
+      <c r="K33" s="220">
+        <v>35247</v>
+      </c>
+      <c r="L33" s="243">
+        <v>34357.5</v>
+      </c>
+      <c r="M33" s="220">
+        <v>117500</v>
+      </c>
+      <c r="N33" s="244">
+        <v>117050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="156"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="259" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="259"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="259"/>
+      <c r="N38" s="259"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="157"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="261"/>
+      <c r="E39" s="262" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="263"/>
+      <c r="G39" s="264" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="265"/>
+      <c r="I39" s="266" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="267"/>
+      <c r="K39" s="268" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="269"/>
+      <c r="M39" s="270" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="271"/>
+    </row>
+    <row r="40" spans="1:14" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="200" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="245">
+        <v>1228</v>
+      </c>
+      <c r="D41" s="204">
+        <v>1228</v>
+      </c>
+      <c r="E41" s="203">
+        <v>954</v>
+      </c>
+      <c r="F41" s="204" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="205">
+        <v>4402</v>
+      </c>
+      <c r="H41" s="206" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="207">
+        <v>15295</v>
+      </c>
+      <c r="J41" s="206" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" s="208">
+        <v>35010</v>
+      </c>
+      <c r="L41" s="207" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" s="209">
+        <v>117986</v>
+      </c>
+      <c r="N41" s="210" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="213">
+        <v>1228</v>
+      </c>
+      <c r="D42" s="214">
+        <v>1228</v>
+      </c>
+      <c r="E42" s="215">
+        <v>957</v>
+      </c>
+      <c r="F42" s="216" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="217">
+        <v>4470</v>
+      </c>
+      <c r="H42" s="218">
+        <v>4258.5</v>
+      </c>
+      <c r="I42" s="219">
+        <v>15514</v>
+      </c>
+      <c r="J42" s="218">
+        <v>14962.59</v>
+      </c>
+      <c r="K42" s="220">
+        <v>34922</v>
+      </c>
+      <c r="L42" s="218">
+        <v>34269.599999999999</v>
+      </c>
+      <c r="M42" s="207">
+        <v>117270</v>
+      </c>
+      <c r="N42" s="221">
+        <v>118401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="222" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="223" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="215">
+        <v>1228</v>
+      </c>
+      <c r="D43" s="216">
+        <v>1228</v>
+      </c>
+      <c r="E43" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="224">
+        <v>909</v>
+      </c>
+      <c r="G43" s="225">
+        <v>4417</v>
+      </c>
+      <c r="H43" s="218">
+        <v>4205</v>
+      </c>
+      <c r="I43" s="217">
+        <v>14998</v>
+      </c>
+      <c r="J43" s="218">
+        <v>14728.4</v>
+      </c>
+      <c r="K43" s="219">
+        <v>34889</v>
+      </c>
+      <c r="L43" s="226">
+        <v>34371.599999999999</v>
+      </c>
+      <c r="M43" s="219">
+        <v>117774</v>
+      </c>
+      <c r="N43" s="246">
+        <v>117071.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="247">
+        <v>1228</v>
+      </c>
+      <c r="D44" s="216">
+        <v>1228</v>
+      </c>
+      <c r="E44" s="219">
+        <v>984</v>
+      </c>
+      <c r="F44" s="224">
+        <v>874</v>
+      </c>
+      <c r="G44" s="219">
+        <v>4077</v>
+      </c>
+      <c r="H44" s="230">
+        <v>4034.8</v>
+      </c>
+      <c r="I44" s="219">
+        <v>14582</v>
+      </c>
+      <c r="J44" s="224">
+        <v>14356.4</v>
+      </c>
+      <c r="K44" s="219">
+        <v>34521</v>
+      </c>
+      <c r="L44" s="224">
+        <v>34237.89</v>
+      </c>
+      <c r="M44" s="219">
+        <v>118153</v>
+      </c>
+      <c r="N44" s="224">
+        <v>117340.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="231" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="215">
+        <v>1228</v>
+      </c>
+      <c r="D45" s="248">
+        <v>1228</v>
+      </c>
+      <c r="E45" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="224">
+        <v>911</v>
+      </c>
+      <c r="G45" s="219">
+        <v>4313</v>
+      </c>
+      <c r="H45" s="224" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="219">
+        <v>15094</v>
+      </c>
+      <c r="J45" s="224" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" s="219">
+        <v>35058</v>
+      </c>
+      <c r="L45" s="224">
+        <v>34668</v>
+      </c>
+      <c r="M45" s="219">
+        <v>121712</v>
+      </c>
+      <c r="N45" s="224" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="232" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="249">
+        <v>1228</v>
+      </c>
+      <c r="D46" s="224">
+        <v>1228</v>
+      </c>
+      <c r="E46" s="219">
+        <v>984</v>
+      </c>
+      <c r="F46" s="224" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="219">
+        <v>4317</v>
+      </c>
+      <c r="H46" s="224">
+        <v>4195</v>
+      </c>
+      <c r="I46" s="219">
+        <v>15102</v>
+      </c>
+      <c r="J46" s="224" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="219">
+        <v>34513</v>
+      </c>
+      <c r="L46" s="224" t="s">
+        <v>150</v>
+      </c>
+      <c r="M46" s="219">
+        <v>118082</v>
+      </c>
+      <c r="N46" s="224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="250">
+        <v>1228</v>
+      </c>
+      <c r="D47" s="251">
+        <v>1228</v>
+      </c>
+      <c r="E47" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="224">
+        <v>910.9</v>
+      </c>
+      <c r="G47" s="219">
+        <v>4117</v>
+      </c>
+      <c r="H47" s="224" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="219">
+        <v>14665</v>
+      </c>
+      <c r="J47" s="218">
+        <v>14409.79</v>
+      </c>
+      <c r="K47" s="235">
+        <v>34717</v>
+      </c>
+      <c r="L47" s="224">
+        <v>34345</v>
+      </c>
+      <c r="M47" s="219">
+        <v>118382</v>
+      </c>
+      <c r="N47" s="224" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="250">
+        <v>1228</v>
+      </c>
+      <c r="D48" s="207">
+        <v>1228</v>
+      </c>
+      <c r="E48" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="224" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="219">
+        <v>4280</v>
+      </c>
+      <c r="H48" s="218">
+        <v>4026</v>
+      </c>
+      <c r="I48" s="235">
+        <v>14584</v>
+      </c>
+      <c r="J48" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="235">
+        <v>34003</v>
+      </c>
+      <c r="L48" s="224" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" s="219">
+        <v>117469</v>
+      </c>
+      <c r="N48" s="224" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="238" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="233" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="250">
+        <v>1228</v>
+      </c>
+      <c r="D49" s="252">
+        <v>1228</v>
+      </c>
+      <c r="E49" s="219">
+        <v>967</v>
+      </c>
+      <c r="F49" s="224" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="219">
+        <v>4255</v>
+      </c>
+      <c r="H49" s="224" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="219">
+        <v>14981</v>
+      </c>
+      <c r="J49" s="218" t="s">
+        <v>160</v>
+      </c>
+      <c r="K49" s="235">
+        <v>34631</v>
+      </c>
+      <c r="L49" s="224" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="219">
+        <v>118957</v>
+      </c>
+      <c r="N49" s="224" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="239" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="253">
+        <v>1228</v>
+      </c>
+      <c r="D50" s="254">
+        <v>1228</v>
+      </c>
+      <c r="E50" s="241">
+        <v>1000</v>
+      </c>
+      <c r="F50" s="255" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="242">
+        <v>4459</v>
+      </c>
+      <c r="H50" s="243" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="220">
+        <v>15128</v>
+      </c>
+      <c r="J50" s="243" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" s="220">
+        <v>34959</v>
+      </c>
+      <c r="L50" s="243" t="s">
+        <v>166</v>
+      </c>
+      <c r="M50" s="220">
+        <v>118364</v>
+      </c>
+      <c r="N50" s="244" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="156"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="259" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="259"/>
+      <c r="E55" s="259"/>
+      <c r="F55" s="259"/>
+      <c r="G55" s="259"/>
+      <c r="H55" s="259"/>
+      <c r="I55" s="259"/>
+      <c r="J55" s="259"/>
+      <c r="K55" s="259"/>
+      <c r="L55" s="259"/>
+      <c r="M55" s="259"/>
+      <c r="N55" s="259"/>
+    </row>
+    <row r="56" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="157"/>
+      <c r="B56" s="158"/>
+      <c r="C56" s="260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="261"/>
+      <c r="E56" s="262" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="263"/>
+      <c r="G56" s="264" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="265"/>
+      <c r="I56" s="266" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="267"/>
+      <c r="K56" s="268" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="269"/>
+      <c r="M56" s="270" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="271"/>
+    </row>
+    <row r="57" spans="1:14" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="162" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="161" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="256" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="245">
+        <v>1228</v>
+      </c>
+      <c r="D58" s="204">
+        <v>1228</v>
+      </c>
+      <c r="E58" s="203">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="204" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="205">
+        <v>5194</v>
+      </c>
+      <c r="H58" s="206">
+        <v>5061.0200000000004</v>
+      </c>
+      <c r="I58" s="207">
+        <v>18324</v>
+      </c>
+      <c r="J58" s="206">
+        <v>17872.7</v>
+      </c>
+      <c r="K58" s="208">
+        <v>43662</v>
+      </c>
+      <c r="L58" s="207">
+        <v>42825.332030999998</v>
+      </c>
+      <c r="M58" s="209">
+        <v>139947</v>
+      </c>
+      <c r="N58" s="210" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="212" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="213">
+        <v>1228</v>
+      </c>
+      <c r="D59" s="214">
+        <v>1228</v>
+      </c>
+      <c r="E59" s="215">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="216">
+        <v>998.080017</v>
+      </c>
+      <c r="G59" s="217">
+        <v>5194</v>
+      </c>
+      <c r="H59" s="218">
+        <v>5084</v>
+      </c>
+      <c r="I59" s="219">
+        <v>18315</v>
+      </c>
+      <c r="J59" s="218" t="s">
+        <v>98</v>
+      </c>
+      <c r="K59" s="220">
+        <v>43456</v>
+      </c>
+      <c r="L59" s="218" t="s">
+        <v>99</v>
+      </c>
+      <c r="M59" s="207">
+        <v>139967</v>
+      </c>
+      <c r="N59" s="221">
+        <v>138643.70000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="222" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="223" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="215">
+        <v>1228</v>
+      </c>
+      <c r="D60" s="216">
+        <v>1228</v>
+      </c>
+      <c r="E60" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="224" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="225">
+        <v>5194</v>
+      </c>
+      <c r="H60" s="218" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="217">
+        <v>18295</v>
+      </c>
+      <c r="J60" s="218" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60" s="219">
+        <v>43005</v>
+      </c>
+      <c r="L60" s="226" t="s">
+        <v>103</v>
+      </c>
+      <c r="M60" s="219">
+        <v>139223</v>
+      </c>
+      <c r="N60" s="246" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="229" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="247">
+        <v>1228</v>
+      </c>
+      <c r="D61" s="216">
+        <v>1228</v>
+      </c>
+      <c r="E61" s="219">
+        <v>954</v>
+      </c>
+      <c r="F61" s="224" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="219">
+        <v>4236</v>
+      </c>
+      <c r="H61" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="219">
+        <v>15000</v>
+      </c>
+      <c r="J61" s="224" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="219">
+        <v>35160</v>
+      </c>
+      <c r="L61" s="224" t="s">
+        <v>137</v>
+      </c>
+      <c r="M61" s="219">
+        <v>118436</v>
+      </c>
+      <c r="N61" s="224" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="231" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="215">
+        <v>1228</v>
+      </c>
+      <c r="D62" s="248">
+        <v>1228</v>
+      </c>
+      <c r="E62" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="224" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="219">
+        <v>5049</v>
+      </c>
+      <c r="H62" s="224" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="219">
+        <v>17100</v>
+      </c>
+      <c r="J62" s="224" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="219">
+        <v>39799</v>
+      </c>
+      <c r="L62" s="224">
+        <v>38661</v>
+      </c>
+      <c r="M62" s="219">
+        <v>127913</v>
+      </c>
+      <c r="N62" s="224" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="232" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="249">
+        <v>1228</v>
+      </c>
+      <c r="D63" s="224">
+        <v>1228</v>
+      </c>
+      <c r="E63" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="224" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="219">
+        <v>5194</v>
+      </c>
+      <c r="H63" s="224" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="219">
+        <v>18363</v>
+      </c>
+      <c r="J63" s="224" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" s="219">
+        <v>43173</v>
+      </c>
+      <c r="L63" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="219">
+        <v>139450</v>
+      </c>
+      <c r="N63" s="224" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="250">
+        <v>1228</v>
+      </c>
+      <c r="D64" s="251">
+        <v>1228</v>
+      </c>
+      <c r="E64" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F64" s="224" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="219">
+        <v>5194</v>
+      </c>
+      <c r="H64" s="224" t="s">
+        <v>114</v>
+      </c>
+      <c r="I64" s="219">
+        <v>18460</v>
+      </c>
+      <c r="J64" s="218" t="s">
+        <v>115</v>
+      </c>
+      <c r="K64" s="235">
+        <v>44807</v>
+      </c>
+      <c r="L64" s="224" t="s">
+        <v>116</v>
+      </c>
+      <c r="M64" s="219">
+        <v>145665</v>
+      </c>
+      <c r="N64" s="224" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="250">
+        <v>1228</v>
+      </c>
+      <c r="D65" s="207">
+        <v>1228</v>
+      </c>
+      <c r="E65" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="224" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" s="219">
+        <v>5156</v>
+      </c>
+      <c r="H65" s="218">
+        <v>5029</v>
+      </c>
+      <c r="I65" s="235">
+        <v>18243</v>
+      </c>
+      <c r="J65" s="218">
+        <v>17904</v>
+      </c>
+      <c r="K65" s="235">
+        <v>43298</v>
+      </c>
+      <c r="L65" s="224" t="s">
+        <v>119</v>
+      </c>
+      <c r="M65" s="219">
+        <v>140138</v>
+      </c>
+      <c r="N65" s="224" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="238" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="233" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="250">
+        <v>1228</v>
+      </c>
+      <c r="D66" s="252">
+        <v>1228</v>
+      </c>
+      <c r="E66" s="219">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="224" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="219">
+        <v>5194</v>
+      </c>
+      <c r="H66" s="224">
+        <v>5052</v>
+      </c>
+      <c r="I66" s="219">
+        <v>18127</v>
+      </c>
+      <c r="J66" s="218" t="s">
+        <v>123</v>
+      </c>
+      <c r="K66" s="235">
+        <v>43288</v>
+      </c>
+      <c r="L66" s="224" t="s">
+        <v>124</v>
+      </c>
+      <c r="M66" s="219">
+        <v>140321</v>
+      </c>
+      <c r="N66" s="224" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="239" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="240" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="253">
+        <v>1228</v>
+      </c>
+      <c r="D67" s="254">
+        <v>1228</v>
+      </c>
+      <c r="E67" s="241">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="255" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="242">
+        <v>5194</v>
+      </c>
+      <c r="H67" s="243" t="s">
+        <v>127</v>
+      </c>
+      <c r="I67" s="220">
+        <v>18355</v>
+      </c>
+      <c r="J67" s="243" t="s">
+        <v>128</v>
+      </c>
+      <c r="K67" s="220">
+        <v>43237</v>
+      </c>
+      <c r="L67" s="243" t="s">
+        <v>129</v>
+      </c>
+      <c r="M67" s="220">
+        <v>140940</v>
+      </c>
+      <c r="N67" s="244" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="C55:N55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6720345E-CA09-42FB-91F3-794CEE901D16}">
+  <dimension ref="A3:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="272" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="274"/>
+      <c r="E4" s="275" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="275"/>
+      <c r="G4" s="276" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="277"/>
+      <c r="I4" s="278" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="279"/>
+      <c r="K4" s="280" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="281"/>
+      <c r="M4" s="282" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="283"/>
+    </row>
+    <row r="5" spans="1:14" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D6" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="40">
+        <v>995.2</v>
+      </c>
+      <c r="G6" s="42">
+        <v>5087</v>
+      </c>
+      <c r="H6" s="42">
+        <v>4989.3900000000003</v>
+      </c>
+      <c r="I6" s="44">
+        <v>18341</v>
+      </c>
+      <c r="J6" s="43">
+        <v>18042.099999999999</v>
+      </c>
+      <c r="K6" s="45">
+        <v>43663</v>
+      </c>
+      <c r="L6" s="44">
+        <v>43179.7</v>
+      </c>
+      <c r="M6" s="46">
+        <v>141166</v>
+      </c>
+      <c r="N6" s="47">
+        <v>140410.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="48">
+        <v>1228</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1228</v>
+      </c>
+      <c r="E7" s="50">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="51">
+        <v>998.3</v>
+      </c>
+      <c r="G7" s="52">
+        <v>5156</v>
+      </c>
+      <c r="H7" s="53">
+        <v>4984</v>
+      </c>
+      <c r="I7" s="54">
+        <v>18074</v>
+      </c>
+      <c r="J7" s="53">
+        <v>17554</v>
+      </c>
+      <c r="K7" s="55">
+        <v>41787</v>
+      </c>
+      <c r="L7" s="53">
+        <v>41357.300000000003</v>
+      </c>
+      <c r="M7" s="44">
+        <v>141161</v>
+      </c>
+      <c r="N7" s="56">
+        <v>140389.79999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D8" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E8" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="57">
+        <v>992</v>
+      </c>
+      <c r="G8" s="58">
+        <v>5153</v>
+      </c>
+      <c r="H8" s="53">
+        <v>5055.8</v>
+      </c>
+      <c r="I8" s="52">
+        <v>18284</v>
+      </c>
+      <c r="J8" s="53">
+        <v>18064.689999999999</v>
+      </c>
+      <c r="K8" s="54">
+        <v>43502</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="54">
+        <v>140795</v>
+      </c>
+      <c r="N8" s="60">
+        <v>140127.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D9" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E9" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="57">
+        <v>989.23</v>
+      </c>
+      <c r="G9" s="54">
+        <v>5179</v>
+      </c>
+      <c r="H9" s="61">
+        <v>5050</v>
+      </c>
+      <c r="I9" s="54">
+        <v>17840</v>
+      </c>
+      <c r="J9" s="57">
+        <v>17467.5</v>
+      </c>
+      <c r="K9" s="54">
+        <v>42094</v>
+      </c>
+      <c r="L9" s="57">
+        <v>41520.5</v>
+      </c>
+      <c r="M9" s="54">
+        <v>136386</v>
+      </c>
+      <c r="N9" s="57">
+        <v>134698.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1228</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1228</v>
+      </c>
+      <c r="E10" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="57">
+        <v>987</v>
+      </c>
+      <c r="G10" s="54">
+        <v>5108</v>
+      </c>
+      <c r="H10" s="57">
+        <v>4975.3</v>
+      </c>
+      <c r="I10" s="54">
+        <v>18026</v>
+      </c>
+      <c r="J10" s="57">
+        <v>17670.7</v>
+      </c>
+      <c r="K10" s="54">
+        <v>42110</v>
+      </c>
+      <c r="L10" s="57">
+        <v>41815.300000000003</v>
+      </c>
+      <c r="M10" s="54">
+        <v>137805</v>
+      </c>
+      <c r="N10" s="57">
+        <v>135712.70000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D11" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E11" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="57">
+        <v>992</v>
+      </c>
+      <c r="G11" s="58">
+        <v>5153</v>
+      </c>
+      <c r="H11" s="53">
+        <v>5055.8</v>
+      </c>
+      <c r="I11" s="52">
+        <v>18284</v>
+      </c>
+      <c r="J11" s="53">
+        <v>18064.689999999999</v>
+      </c>
+      <c r="K11" s="54">
+        <v>43502</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="54">
+        <v>140795</v>
+      </c>
+      <c r="N11" s="60">
+        <v>140127.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D12" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E12" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="57">
+        <v>998.4</v>
+      </c>
+      <c r="G12" s="54">
+        <v>5194</v>
+      </c>
+      <c r="H12" s="57">
+        <v>5093.6000000000004</v>
+      </c>
+      <c r="I12" s="54">
+        <v>18517</v>
+      </c>
+      <c r="J12" s="53">
+        <v>18296.2</v>
+      </c>
+      <c r="K12" s="62">
+        <v>44527</v>
+      </c>
+      <c r="L12" s="57">
+        <v>44258.6</v>
+      </c>
+      <c r="M12" s="54">
+        <v>144802</v>
+      </c>
+      <c r="N12" s="57">
+        <v>144333.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1228</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1228</v>
+      </c>
+      <c r="E13" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="57">
+        <v>982.9</v>
+      </c>
+      <c r="G13" s="54">
+        <v>5140</v>
+      </c>
+      <c r="H13" s="53">
+        <v>5046</v>
+      </c>
+      <c r="I13" s="62">
+        <v>18368</v>
+      </c>
+      <c r="J13" s="53">
+        <v>18047.189999999999</v>
+      </c>
+      <c r="K13" s="62">
+        <v>43788</v>
+      </c>
+      <c r="L13" s="57">
+        <v>43346.1</v>
+      </c>
+      <c r="M13" s="54">
+        <v>141994</v>
+      </c>
+      <c r="N13" s="57">
+        <v>140481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D14" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E14" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="57">
+        <v>995</v>
+      </c>
+      <c r="G14" s="54">
+        <v>5156</v>
+      </c>
+      <c r="H14" s="57">
+        <v>5081.8999999999996</v>
+      </c>
+      <c r="I14" s="54">
+        <v>19168</v>
+      </c>
+      <c r="J14" s="53">
+        <v>18024.900000000001</v>
+      </c>
+      <c r="K14" s="62">
+        <v>43581</v>
+      </c>
+      <c r="L14" s="57">
+        <v>43211.3</v>
+      </c>
+      <c r="M14" s="54">
+        <v>141152</v>
+      </c>
+      <c r="N14" s="57">
+        <v>140499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="83">
+        <v>1228</v>
+      </c>
+      <c r="D15" s="84">
+        <v>1228</v>
+      </c>
+      <c r="E15" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="64">
+        <v>995</v>
+      </c>
+      <c r="G15" s="65">
+        <v>5194</v>
+      </c>
+      <c r="H15" s="66">
+        <v>5034.3</v>
+      </c>
+      <c r="I15" s="55">
+        <v>18219</v>
+      </c>
+      <c r="J15" s="66">
+        <v>18052.3</v>
+      </c>
+      <c r="K15" s="55">
+        <v>43320</v>
+      </c>
+      <c r="L15" s="66">
+        <v>43035</v>
+      </c>
+      <c r="M15" s="55">
+        <v>141175</v>
+      </c>
+      <c r="N15" s="85">
+        <v>140009.60000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="272" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
+      <c r="L20" s="272"/>
+      <c r="M20" s="272"/>
+      <c r="N20" s="272"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="274"/>
+      <c r="E21" s="275" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="275"/>
+      <c r="G21" s="276" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="277"/>
+      <c r="I21" s="278" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="279"/>
+      <c r="K21" s="280" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="281"/>
+      <c r="M21" s="282" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="283"/>
+    </row>
+    <row r="22" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D23" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="17">
+        <v>996</v>
+      </c>
+      <c r="G23" s="19">
+        <v>5194</v>
+      </c>
+      <c r="H23" s="19">
+        <v>5064.1000000000004</v>
+      </c>
+      <c r="I23" s="21">
+        <v>18410</v>
+      </c>
+      <c r="J23" s="20">
+        <v>18059</v>
+      </c>
+      <c r="K23" s="22">
+        <v>43734</v>
+      </c>
+      <c r="L23" s="21">
+        <v>43343.7</v>
+      </c>
+      <c r="M23" s="23">
+        <v>143654</v>
+      </c>
+      <c r="N23" s="24">
+        <v>141544.20000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1228</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1228</v>
+      </c>
+      <c r="E24" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="28">
+        <v>996.8</v>
+      </c>
+      <c r="G24" s="29">
+        <v>5173</v>
+      </c>
+      <c r="H24" s="30">
+        <v>5061.8</v>
+      </c>
+      <c r="I24" s="31">
+        <v>18527</v>
+      </c>
+      <c r="J24" s="30">
+        <v>18182.8</v>
+      </c>
+      <c r="K24" s="32">
+        <v>43643</v>
+      </c>
+      <c r="L24" s="30">
+        <v>43303.199999999997</v>
+      </c>
+      <c r="M24" s="21">
+        <v>141847</v>
+      </c>
+      <c r="N24" s="33">
+        <v>141275.29999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D25" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="34">
+        <v>993.6</v>
+      </c>
+      <c r="G25" s="35">
+        <v>5194</v>
+      </c>
+      <c r="H25" s="30">
+        <v>5107</v>
+      </c>
+      <c r="I25" s="29">
+        <v>18128</v>
+      </c>
+      <c r="J25" s="30">
+        <v>17961.400000000001</v>
+      </c>
+      <c r="K25" s="31">
+        <v>43745</v>
+      </c>
+      <c r="L25" s="36">
+        <v>43296</v>
+      </c>
+      <c r="M25" s="31">
+        <v>141807</v>
+      </c>
+      <c r="N25" s="37">
+        <v>141185.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D26" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="34">
+        <v>971</v>
+      </c>
+      <c r="G26" s="31">
+        <v>5194</v>
+      </c>
+      <c r="H26" s="38">
+        <v>5080.7</v>
+      </c>
+      <c r="I26" s="31">
+        <v>18063</v>
+      </c>
+      <c r="J26" s="34">
+        <v>17726</v>
+      </c>
+      <c r="K26" s="31">
+        <v>43373</v>
+      </c>
+      <c r="L26" s="34">
+        <v>42579.8</v>
+      </c>
+      <c r="M26" s="31">
+        <v>138972</v>
+      </c>
+      <c r="N26" s="34">
+        <v>138058.20000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1228</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1228</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="31">
+        <v>5194</v>
+      </c>
+      <c r="H27" s="34">
+        <v>5048</v>
+      </c>
+      <c r="I27" s="31">
+        <v>18288</v>
+      </c>
+      <c r="J27" s="34">
+        <v>17897</v>
+      </c>
+      <c r="K27" s="31">
+        <v>43238</v>
+      </c>
+      <c r="L27" s="34">
+        <v>42570.2</v>
+      </c>
+      <c r="M27" s="31">
+        <v>140019</v>
+      </c>
+      <c r="N27" s="34">
+        <v>138774.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D28" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E28" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="34">
+        <v>993.6</v>
+      </c>
+      <c r="G28" s="35">
+        <v>5194</v>
+      </c>
+      <c r="H28" s="30">
+        <v>5107</v>
+      </c>
+      <c r="I28" s="29">
+        <v>18128</v>
+      </c>
+      <c r="J28" s="30">
+        <v>17961.400000000001</v>
+      </c>
+      <c r="K28" s="31">
+        <v>43745</v>
+      </c>
+      <c r="L28" s="36">
+        <v>43296</v>
+      </c>
+      <c r="M28" s="31">
+        <v>141807</v>
+      </c>
+      <c r="N28" s="37">
+        <v>141185.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D29" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E29" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="34">
+        <v>998.4</v>
+      </c>
+      <c r="G29" s="31">
+        <v>5136</v>
+      </c>
+      <c r="H29" s="34">
+        <v>5025.6000000000004</v>
+      </c>
+      <c r="I29" s="31">
+        <v>18525</v>
+      </c>
+      <c r="J29" s="30">
+        <v>18235</v>
+      </c>
+      <c r="K29" s="39">
+        <v>44542</v>
+      </c>
+      <c r="L29" s="34">
+        <v>44257.9</v>
+      </c>
+      <c r="M29" s="31">
+        <v>145877</v>
+      </c>
+      <c r="N29" s="34">
+        <v>144868.29999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1228</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1228</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="31">
+        <v>5194</v>
+      </c>
+      <c r="H30" s="30">
+        <v>5055.7</v>
+      </c>
+      <c r="I30" s="39">
+        <v>18554</v>
+      </c>
+      <c r="J30" s="30">
+        <v>18344.400000000001</v>
+      </c>
+      <c r="K30" s="39">
+        <v>44765</v>
+      </c>
+      <c r="L30" s="34">
+        <v>44477.5</v>
+      </c>
+      <c r="M30" s="31">
+        <v>143766</v>
+      </c>
+      <c r="N30" s="34">
+        <v>142847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D31" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="34">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="31">
+        <v>5153</v>
+      </c>
+      <c r="H31" s="34">
+        <v>5037.7</v>
+      </c>
+      <c r="I31" s="31">
+        <v>18547</v>
+      </c>
+      <c r="J31" s="30">
+        <v>18252.2</v>
+      </c>
+      <c r="K31" s="39">
+        <v>44457</v>
+      </c>
+      <c r="L31" s="34">
+        <v>44282.2</v>
+      </c>
+      <c r="M31" s="31">
+        <v>144238</v>
+      </c>
+      <c r="N31" s="34">
+        <v>143383.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="76">
+        <v>1228</v>
+      </c>
+      <c r="D32" s="77">
+        <v>1228</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="34">
+        <v>993.6</v>
+      </c>
+      <c r="G32" s="35">
+        <v>5194</v>
+      </c>
+      <c r="H32" s="30">
+        <v>5107</v>
+      </c>
+      <c r="I32" s="29">
+        <v>18128</v>
+      </c>
+      <c r="J32" s="30">
+        <v>17961.400000000001</v>
+      </c>
+      <c r="K32" s="31">
+        <v>43745</v>
+      </c>
+      <c r="L32" s="36">
+        <v>43296</v>
+      </c>
+      <c r="M32" s="31">
+        <v>141807</v>
+      </c>
+      <c r="N32" s="37">
+        <v>141185.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="272" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="272"/>
+      <c r="E37" s="272"/>
+      <c r="F37" s="272"/>
+      <c r="G37" s="272"/>
+      <c r="H37" s="272"/>
+      <c r="I37" s="272"/>
+      <c r="J37" s="272"/>
+      <c r="K37" s="272"/>
+      <c r="L37" s="272"/>
+      <c r="M37" s="272"/>
+      <c r="N37" s="272"/>
+    </row>
+    <row r="38" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="93"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="274"/>
+      <c r="E38" s="275" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="275"/>
+      <c r="G38" s="276" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="277"/>
+      <c r="I38" s="278" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="279"/>
+      <c r="K38" s="280" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="281"/>
+      <c r="M38" s="282" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="283"/>
+    </row>
+    <row r="39" spans="1:14" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="38.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="109">
+        <v>1228</v>
+      </c>
+      <c r="D40" s="108">
+        <v>1228</v>
+      </c>
+      <c r="E40" s="101">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="131">
+        <v>5194</v>
+      </c>
+      <c r="H40" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="113">
+        <v>18014</v>
+      </c>
+      <c r="J40" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" s="134">
+        <v>42012</v>
+      </c>
+      <c r="L40" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40" s="133">
+        <v>135658</v>
+      </c>
+      <c r="N40" s="132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="106">
+        <v>1228</v>
+      </c>
+      <c r="D41" s="107">
+        <v>1228</v>
+      </c>
+      <c r="E41" s="102">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="129">
+        <v>5097</v>
+      </c>
+      <c r="H41" s="114">
+        <v>5000</v>
+      </c>
+      <c r="I41" s="111">
+        <v>17815</v>
+      </c>
+      <c r="J41" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="127">
+        <v>41958</v>
+      </c>
+      <c r="L41" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" s="113">
+        <v>136072</v>
+      </c>
+      <c r="N41" s="135">
+        <v>134847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="102">
+        <v>1228</v>
+      </c>
+      <c r="D42" s="110">
+        <v>1228</v>
+      </c>
+      <c r="E42" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="119">
+        <v>5510</v>
+      </c>
+      <c r="H42" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="129">
+        <v>17965</v>
+      </c>
+      <c r="J42" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="111">
+        <v>41862</v>
+      </c>
+      <c r="L42" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="M42" s="111">
+        <v>136160</v>
+      </c>
+      <c r="N42" s="105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="136">
+        <v>1228</v>
+      </c>
+      <c r="D43" s="110">
+        <v>1228</v>
+      </c>
+      <c r="E43" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="111">
+        <v>5156</v>
+      </c>
+      <c r="H43" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="111">
+        <v>17779</v>
+      </c>
+      <c r="J43" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="K43" s="111">
+        <v>42057</v>
+      </c>
+      <c r="L43" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="M43" s="111">
+        <v>136082</v>
+      </c>
+      <c r="N43" s="114" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="139" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="102">
+        <v>1228</v>
+      </c>
+      <c r="D44" s="112">
+        <v>1228</v>
+      </c>
+      <c r="E44" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="111">
+        <v>5064</v>
+      </c>
+      <c r="H44" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="111">
+        <v>17821</v>
+      </c>
+      <c r="J44" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="111">
+        <v>42020</v>
+      </c>
+      <c r="L44" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" s="111">
+        <v>136895</v>
+      </c>
+      <c r="N44" s="104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="111">
+        <v>1228</v>
+      </c>
+      <c r="D45" s="104">
+        <v>1228</v>
+      </c>
+      <c r="E45" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="111">
+        <v>5174</v>
+      </c>
+      <c r="H45" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="111">
+        <v>17724</v>
+      </c>
+      <c r="J45" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="K45" s="111">
+        <v>41875</v>
+      </c>
+      <c r="L45" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" s="111">
+        <v>135852</v>
+      </c>
+      <c r="N45" s="114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="115">
+        <v>1228</v>
+      </c>
+      <c r="D46" s="123">
+        <v>1228</v>
+      </c>
+      <c r="E46" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="111">
+        <v>5168</v>
+      </c>
+      <c r="H46" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="111">
+        <v>17829</v>
+      </c>
+      <c r="J46" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="K46" s="103">
+        <v>41766</v>
+      </c>
+      <c r="L46" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="M46" s="111">
+        <v>135200</v>
+      </c>
+      <c r="N46" s="104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="115">
+        <v>1228</v>
+      </c>
+      <c r="D47" s="113">
+        <v>1228</v>
+      </c>
+      <c r="E47" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="111">
+        <v>5170</v>
+      </c>
+      <c r="H47" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="I47" s="103">
+        <v>17667</v>
+      </c>
+      <c r="J47" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" s="103">
+        <v>41965</v>
+      </c>
+      <c r="L47" s="104" t="s">
+        <v>206</v>
+      </c>
+      <c r="M47" s="111">
+        <v>135595</v>
+      </c>
+      <c r="N47" s="104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="115">
+        <v>1228</v>
+      </c>
+      <c r="D48" s="124">
+        <v>1228</v>
+      </c>
+      <c r="E48" s="111">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" s="111">
+        <v>5119</v>
+      </c>
+      <c r="H48" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="111">
+        <v>17715</v>
+      </c>
+      <c r="J48" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="103">
+        <v>41692</v>
+      </c>
+      <c r="L48" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="M48" s="111">
+        <v>135942</v>
+      </c>
+      <c r="N48" s="104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="116">
+        <v>1228</v>
+      </c>
+      <c r="D49" s="117">
+        <v>1228</v>
+      </c>
+      <c r="E49" s="128">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="125">
+        <v>5173</v>
+      </c>
+      <c r="H49" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="127">
+        <v>17995</v>
+      </c>
+      <c r="J49" s="153" t="s">
+        <v>214</v>
+      </c>
+      <c r="K49" s="155">
+        <v>41886</v>
+      </c>
+      <c r="L49" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="M49" s="127">
+        <v>135335</v>
+      </c>
+      <c r="N49" s="120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C20:N20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>